--- a/biology/Zoologie/Archepandemis/Archepandemis.xlsx
+++ b/biology/Zoologie/Archepandemis/Archepandemis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archepandemis est un genre de lépidoptères (papillons) de la famille des Tortricidae originaire du Canada.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 mars 2024) :
 Archepandemis borealis (Freeman, 1965) - espèce type
 Archepandemis coniferana Mutuura, 1978
 Archepandemis morrisana Mutuura, 1978</t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archepandemis Mutuura (d), 1978[1],[2]. Son espèce type est Archepandemis borealis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archepandemis Mutuura (d), 1978,. Son espèce type est Archepandemis borealis.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Akira Mutuura, « A New Genus of Coniferophagous Tortricidae, and Two New Species (Lepidoptera: Tortricidae) », The Canadian Entomologist, Ottawa, Société d'entomologie du Canada, vol. 110, no 6,‎ 1er juin 1978, p. 569-574 (ISSN 0008-347X et 1918-3240, OCLC 01553087, DOI 10.4039/ENT110569-6)</t>
         </is>
